--- a/biology/Médecine/Biomécanique_des_muscles/Biomécanique_des_muscles.xlsx
+++ b/biology/Médecine/Biomécanique_des_muscles/Biomécanique_des_muscles.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Biom%C3%A9canique_des_muscles</t>
+          <t>Biomécanique_des_muscles</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le comportement mécanique des fibres musculaires est un phénomène lié au rapport entre contraintes et déformations.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Biom%C3%A9canique_des_muscles</t>
+          <t>Biomécanique_des_muscles</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Physiologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Un muscle génère deux types de force : passive ou active. Les forces passives sont dues à l’élasticité de la paroi. Les forces actives sont dues aux mécanismes mis en place dans les fibres musculaires lorsqu’elles sont soumises à un effort extérieur ou lorsqu’elles sont étirées. Elles permettent de mettre en mouvement les tissus et sont gouvernées par les stimuli électriques du système nerveux. Elles sont dues au « cross-bridge ».
 Les fibres musculaires sont constituées de sarcomères, elles-mêmes constituées d’actine (thin filaments) et de myosine  (thick filaments).
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Biom%C3%A9canique_des_muscles</t>
+          <t>Biomécanique_des_muscles</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,7 +558,9 @@
           <t>Modèle mécanique des fibres musculaires</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Un modèle couramment utilisé est le modèle pour les fibres musculaires est le modèle de A. V. Hill (1922). Il est constitué d’un ressort, d’un amortisseur et d’une branche active en parallèle, le tout en série avec un ressort. La branche active modélise l’activité du muscle lorsqu’il y a un stimulus électrique. La branche passive modélise le comportement du muscle en tant que matériau non vivant.
 </t>
@@ -557,7 +573,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Biom%C3%A9canique_des_muscles</t>
+          <t>Biomécanique_des_muscles</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -575,7 +591,9 @@
           <t>Différents types de contractions musculaires</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">isométrique  : la force produite par le muscle est égale à la force externe.
 dynamique (de deux types) :
